--- a/Cited papers in NAIVETE-BASED DISCRIMINATION.xlsx
+++ b/Cited papers in NAIVETE-BASED DISCRIMINATION.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergeimolinari/Desktop/RM Behavioral Contract Theory/research_module/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70122BC-E86C-EC4A-8EBE-E7E90AD88FAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65DB228-54DC-E14B-B1B1-3C2002885F15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4B174A89-2607-9749-ADDE-E0B6D10E6700}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4B174A89-2607-9749-ADDE-E0B6D10E6700}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -1096,10 +1096,10 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E63" sqref="E63"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1108,9 +1108,9 @@
     <col min="2" max="2" width="18.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="108.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="133.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="157.1640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="23.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="51.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="173.1640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="57.83203125" style="3" customWidth="1"/>
     <col min="8" max="8" width="53.83203125" style="3" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1179,7 +1179,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>41</v>
       </c>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>43</v>
       </c>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>45</v>
       </c>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>47</v>
       </c>
@@ -1645,7 +1645,7 @@
       </c>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>49</v>
       </c>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" ht="187" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="170" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>8</v>
       </c>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
@@ -1729,7 +1729,7 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>58</v>
       </c>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>60</v>
       </c>
@@ -1815,7 +1815,7 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>69</v>
       </c>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>72</v>
       </c>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>74</v>
       </c>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>76</v>
       </c>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>78</v>
       </c>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>80</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>83</v>
       </c>
@@ -2009,7 +2009,7 @@
       </c>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>85</v>
       </c>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>87</v>
       </c>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>96</v>
       </c>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>69</v>
       </c>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>99</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>102</v>
       </c>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>105</v>
       </c>
@@ -2215,7 +2215,7 @@
       </c>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>107</v>
       </c>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>108</v>
       </c>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="H54" s="5"/>
     </row>
-    <row r="55" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>110</v>
       </c>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="H55" s="5"/>
     </row>
-    <row r="56" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>112</v>
       </c>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="H56" s="5"/>
     </row>
-    <row r="57" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>114</v>
       </c>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="H57" s="5"/>
     </row>
-    <row r="58" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>118</v>
       </c>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="H58" s="5"/>
     </row>
-    <row r="59" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>121</v>
       </c>
@@ -2369,7 +2369,7 @@
       </c>
       <c r="H59" s="5"/>
     </row>
-    <row r="60" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>124</v>
       </c>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="H60" s="5"/>
     </row>
-    <row r="61" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>125</v>
       </c>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="H61" s="5"/>
     </row>
-    <row r="62" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>127</v>
       </c>

--- a/Cited papers in NAIVETE-BASED DISCRIMINATION.xlsx
+++ b/Cited papers in NAIVETE-BASED DISCRIMINATION.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergeimolinari/Desktop/RM Behavioral Contract Theory/research_module/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65DB228-54DC-E14B-B1B1-3C2002885F15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF8000B-48A6-A148-BBFE-04ED278F05B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4B174A89-2607-9749-ADDE-E0B6D10E6700}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="17500" xr2:uid="{4B174A89-2607-9749-ADDE-E0B6D10E6700}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="227">
   <si>
     <t>Authors</t>
   </si>
@@ -54,12 +54,6 @@
     <t xml:space="preserve">Heidhues, Paul, and Köszegi, Botond </t>
   </si>
   <si>
-    <t>“Exploiting Naıvete about Self-Control in the Credit Market”</t>
-  </si>
-  <si>
-    <t>“We analyze a simple reduced-form pricing model in the tradition of Gabaix and Laibson (2006), where firms can, potentially inefficiently, induce naive consumers to pay unexpected charges.”</t>
-  </si>
-  <si>
     <t>"We develop a model of markets with expensive add-ons inspired by Gabaix and Laibson (2006) and especially Grubb (2015), framing the model in the context of mobile phones.”</t>
   </si>
   <si>
@@ -90,9 +84,6 @@
     <t>“Previous work (Eliaz and Spiegler (2006)) has already shown that if firms do not know consumers’ beliefs, then they often screen consumers according to beliefs.”</t>
   </si>
   <si>
-    <t>“Contracting with Diversely Naive Agents"</t>
-  </si>
-  <si>
     <t xml:space="preserve">Eliaz, Kfir, and Spiegler, Ran </t>
   </si>
   <si>
@@ -114,9 +105,6 @@
     <t>“The Limits of Price Discrimination”</t>
   </si>
   <si>
-    <t>“Our leading application is a credit market where partially naive present-biased borrowers underestimate their willingness to pay costly interest on a loan, and firms take advantage of this mistake by lending more than is socially optimal. Our model is a variant of that in Heidhues and Köszegi (2010), which in turn builds on previous work by DellaVigna and Malmendier (2004) and Eliaz and Spiegler (2006). While the logic of the equilibrium contracts signed by consumers is similar to that in these previous papers, we move beyond the literature in asking how naivete-based discrimination affects welfare.”</t>
-  </si>
-  <si>
     <t>Chapter in the main paper</t>
   </si>
   <si>
@@ -147,9 +135,6 @@
     <t>“Choice and Procrastination”</t>
   </si>
   <si>
-    <t>“Prudence is a commonly assumed property of the consumption-utility function that is equivalent to the precautionary savings motive (Leland (1968)). Numerous papers, including empirical studies by Parker and Preston (2005) and Ventura and Eisenhauer (2006), and experimental studies by Deck and Schlesinger (2014) and Noussair, Trautmann, and van de Kuilen (2014), find that the vast majority of the population is prudent. This suggests that in the credit domain, naivete-based discrimination strictly lowers welfare.”</t>
-  </si>
-  <si>
     <t>Leland, Hayne E.</t>
   </si>
   <si>
@@ -180,27 +165,15 @@
     <t>“Higher Order Risk Attitudes, Demographics, and Financial Decisions”</t>
   </si>
   <si>
-    <t>“For instance, a casino may provide alcohol below cost and create an overly glittery environment to encourage naive consumers to gamble more. Our working paper, Heidhues and Köszegi (working paper, 2014) formalizes this application.”</t>
-  </si>
-  <si>
     <t>working paper, 2014</t>
   </si>
   <si>
-    <t>“In our second model of add-on pricing, inspired by Grubb (2015), both naive and sophisticated consumers expect to take costly steps to avoid an expensive add-on, but naive consumers fail to do so.”</t>
-  </si>
-  <si>
-    <t>“We develop the model in the context of mobile phone overage charges, but the same mechanism may apply to bank account overdraft fees and hotel add-ons as well. The idea that sophisticated consumers pay avoidance costs is discussed by Gabaix and Laibson (2006) in the context of hotels and by Armstrong and Vickers (2012) in the context of bank accounts. One important difference is that consistent with our arguments in Section III.A for studying naivete-based discrimination in pools of consumers with the same beliefs—in our setting both naïve and sophisticated consumers expect to undertake costly avoidance, whereas in previous work only sophisticated consumers do.”</t>
-  </si>
-  <si>
     <t>Armstrong, Mark, and Vickers, John</t>
   </si>
   <si>
     <t>“Consumer Protection and Contingent Charges”</t>
   </si>
   <si>
-    <t>“Some other applications naturally fit in our category of markets with sophisticated-side distortions. First, firms may offer a rebate that consumers must exert costly effort to cash in, and while all consumers expect to do so, naive consumers forget. This hypothesis is consistent with experimental evidence on overconfidence about memory by Ericson (2011).”</t>
-  </si>
-  <si>
     <t>Ericson, Keith Marzilli</t>
   </si>
   <si>
@@ -213,9 +186,6 @@
     <t>“Salience Switching”</t>
   </si>
   <si>
-    <t>“Our analysis reveals that in a market with a homogeneous distortion, the impact of naivete-based discrimination hinges on whether k(·) satisfies decreasing absolute convexity (i.e., whether k′(a)/k′′(a) is increasing in a). In the spirit of the sufficient-statistics approach to welfare analysis (Chetty, Raj (2009)), decreasing absolute convexity is (at least in principle) verifiable based on observable market outcomes.”</t>
-  </si>
-  <si>
     <t>“Sufficient Statistics for Welfare Analysis: A Bridge between Structural and Reduced-Form Methods”</t>
   </si>
   <si>
@@ -237,9 +207,6 @@
     <t>Stango, Victor, and Zinman, Jonathan</t>
   </si>
   <si>
-    <t>“One of the key assumptions of our model is that naive consumers incur unexpected charges. This assumption is made in different forms in many papers in behavioral industrial organization and is consistent with empirical facts from a number of industries. For instance, Stango and Zinman (2009) find that consumers incur many avoidable fees. Grubb and Osborne (2015) estimate that mobile phone consumers are inattentive to past usage and underappreciate the variance of their own demand. The Office of Fair Trading (2008) reports that most consumers who use overdraft protection do so unexpectedly. Evidence by Agarwal, Gabaix, and Laibson (2008) indicates that many credit card consumers seem to forget or not to know about various fees issuers impose. Ausubel (1991) documents that consumers receiving credit card solicitations overrespond to the introductory (“teaser”) interest rate relative to the post-introductory rate, suggesting that they end up revolving debt more than they intended or expected. Regulators are worried about the “bill shock” many mobile phone consumers face when they unknowingly run up charges (Federal Communications Commission (2010)). Other work includes Shui and Ausubel (2004) for credit cards, Armstrong and Vickers (2012) for bank accounts, Hall (1997) for printers, and Bucks and Pence (2008), and Gerardi, Goette, and Meier (2009) for mortgages.”</t>
-  </si>
-  <si>
     <t>“What Do Consumers Really Pay on Their Checking and Credit Card Accounts? Explicit, Implicit, and Avoidable Costs”</t>
   </si>
   <si>
@@ -294,9 +261,6 @@
     <t>“Financial Literacy and Mortgage Outcomes”</t>
   </si>
   <si>
-    <t>“The other central assumption is that firms acquire and use information about consumer naivete for designing offers. Although not conclusive, some direct evidence is consistent with this assumption. Gurun, Matvos, and Seru (forthcoming) document that lenders targeted less sophisticated populations with ads for expensive mortgages. Ru, and Schoar (working paper, 2016) find that the offers credit card companies send to less educated borrowers feature more back-loaded payments, including low introductory interest rates but high late fees, penalty interest rates, and over-the-limit fees.”</t>
-  </si>
-  <si>
     <t>“Advertising Expensive Mortgages”</t>
   </si>
   <si>
@@ -312,9 +276,6 @@
     <t>“Do Credit Card Companies Screen for Behavioral Biases?”</t>
   </si>
   <si>
-    <t>“In addition, researchers have documented several simple correlates of the tendency to make financial mistakes, [For instance, Agarwal (2009) finds an age pattern in the number of financial mistakes individuals make, Calvet, Campbell, and Sodini (2007) report that consumers with lower levels of education or income make more investing mistakes, and Stango and Zinman (2011) document that it is possible to predict, based on two simple hypothetical questions on the Survey of Consumer Finances, the consumers who buy the most overpriced loans.] making it likely that firms also have access to some—perhaps different and probably partial—information regarding naivete. As emphasized by Bar-Gill and Warren (2008), this is especially so given recent technological advances in collecting and processing information about individual consumers.”</t>
-  </si>
-  <si>
     <t>Agarwal, Sumit</t>
   </si>
   <si>
@@ -417,9 +378,6 @@
     <t>working paper, 2013</t>
   </si>
   <si>
-    <t>“In considering how firms respond to the presence of naive consumers, our article belongs to the growing literature on behavioral industrial organization. See Spiegler (2011) for an introduction to and overview of this literature.”</t>
-  </si>
-  <si>
     <t>Spiegler, Ran</t>
   </si>
   <si>
@@ -429,18 +387,12 @@
     <t>(Oxford: Oxford University Press, 2011)</t>
   </si>
   <si>
-    <t>“Studying the effects of a different type of naivete-based discrimination, Johnen (2016) shows that private information about consumer naivete is valuable even in competitive markets in which private information about consumer preferences is worthless.”</t>
-  </si>
-  <si>
     <t>Johnen, Johannes</t>
   </si>
   <si>
     <t>“Dynamic Competition in Markets for Deceptive Products”</t>
   </si>
   <si>
-    <t>“In addition, complementing our analysis of the welfare effects of outside information about consumer naivete, several existing papers (e.g., Eliaz and Spiegler 2006, 2008; Heidhues and Koszegi 2010) study “second-degree naivete-based discrimination,” asking how firms may screen consumers according to naivete.”</t>
-  </si>
-  <si>
     <t>Eliaz, Kfir, and Spiegler, Ran</t>
   </si>
   <si>
@@ -453,9 +405,6 @@
     <t>Heidhues, Paul, and Köszegi, Botond</t>
   </si>
   <si>
-    <t>“On the Welfare Costs of Naivete in the US Credit-Card Market”</t>
-  </si>
-  <si>
     <t>VII</t>
   </si>
   <si>
@@ -480,9 +429,6 @@
     <t>VI.A.</t>
   </si>
   <si>
-    <t>“Then the savings naive consumers unexpectedly forgo is the additional price, and the effort cost sophisticated consumers pay to return the rebate creates a sophisticated-side distortion. Second, in a dynamic setting firms may increase prices on consumers who automatically renew their contracts, and while all consumers expect to search for better deals to avoid the trap, only sophisticated consumers do. Kiss (working paper, 2014) documents that consumers forgo substantial savings by failing to switch providers in the Hungarian market for mandatory auto liability insurance. Using a structural model, he also estimates that the primary reason for low switching rates is that consumers do not pay attention to the possibility of switching.”</t>
-  </si>
-  <si>
     <t>V.A.</t>
   </si>
   <si>
@@ -492,9 +438,6 @@
     <t>"Bayesian consumers infer that hidden add-on prices (e.g., the cost of ink for a printer) are likely to be high prices. If consumers are Bayesian, firms will not shroud information in equilibrium. However, shrouding may occur in an economy with some myopic (or unaware) consumers. Such shrouding creates an inefficiency, which firms may have an incentive to eliminate by educating their competitors' customers. However, if add-ons have close substitutes, a “curse of debiasing” arises, and firms will not be able to profitably debias consumers by unshrouding add-ons. In equilibrium, two kinds of exploitation coexist. Optimizing firms exploit myopic consumers through marketing schemes that shroud high-priced add-ons. In turn, sophisticated consumers exploit these marketing schemes. It is not possible to profitably drive away the business of sophisticates. It is also not possible to profitably lure either myopes or sophisticates to nonexploitative firms. We show that informational shrouding flourishes even in highly competitive markets, even in markets with costless advertising, and even when the shrouding generates allocational inefficiencies."</t>
   </si>
   <si>
-    <t>"For many goods and services such as electricity, health care, cellular phone service, debit-card transactions, or those sold with loyalty discounts, the price of the next unit of service depends on past usage. As a result, consumers who are inattentive to their past usage but are aware of contract terms may remain uncertain about the price of the next unit. I develop a model of inattentive consumption, derive equilibrium pricing when consumers are inattentive, and evaluate bill-shock regulation requiring firms to disclose information that substitutes for attention. When inattentive consumers are sophisticated but heterogeneous in their expected demand, bill-shock regulation reduces social welfare in fairly-competitive markets, which may be the effect of the Federal Communication Commission's recent bill-shock agreement. If some consumers are attentive while others naively fail to anticipate their own inattention, however, then bill-shock regulation increases social welfare and can benefit consumers. Hence, requiring zero-balance alerts in addition to the Federal Reserve's new opt-in rule for debit-card overdraft protection may benefit consumers."</t>
-  </si>
-  <si>
     <t>Shrouded attributes, myopes and sophisticates, add-on prices.</t>
   </si>
   <si>
@@ -513,9 +456,6 @@
     <t>"To analyze the impact of labor market competition on the structure of compensation, we embed multitasking and screening within a Hotelling framework. Competition for talent leads to an escalation of performance pay, shifting effort away from long-term investments, risk management, and cooperation. Efficiency losses can exceed those from a single principal, who dulls incentives to extract rents. As competition intensifies, monopsonistic underincentivization of low-skill agents first decreases and then gives way to growing overincentivization of high-skill ones. Aggregate welfare is thus hill-shaped, while inequality tends to rise monotonically. Bonus caps can help restore balance in incentives but may generate other distortions."</t>
   </si>
   <si>
-    <t>"In standard contract-theoretic models, the underlying assumption is that agent types differ in their preference or cost parameters, and the principal's objective is to design contracts in order to screen this type. We study a contract-theoretic model in which the heterogeneity among agent types is of a “cognitive” nature. In our model, the agent has dynamically inconsistent preferences. Agent types differ only in their degree of “sophistication”, that is, their ability to forecast the change in their future tastes. We fully characterize the menu of contracts which the principal offers in order to screen the agent's sophistication. The menu does not exclude any type: it provides a perfect commitment device for relatively sophisticated types, and “exploitative” contracts which involve speculation with relatively naive types. More naive types are more heavily exploited and generate a greater profit for the principal. Our results allow us to interpret real-life contractual arrangements in a variety of industries."</t>
-  </si>
-  <si>
     <t>A contract-theoretic model in which the agent has dynamically inconsistent preferences. Definition of "Sophistication".</t>
   </si>
   <si>
@@ -528,12 +468,6 @@
     <t>"We analyze the welfare consequences of a monopolist having additional information about consumers' tastes, beyond the prior distribution; the additional information can be used to charge different prices to different segments of the market, i.e., carry out “third degree price discrimination.” We show that the segmentation and pricing induced by the additional information can achieve every combination of consumer and producer surplus such that: (i) consumer surplus is nonnegative, (ii) producer surplus is at least as high as profits under the uniform monopoly price, and (iii) total surplus does not exceed the surplus generated by efficient trade."</t>
   </si>
   <si>
-    <t>"How do rational firms respond to consumer biases? In this paper we analyze the profit-maximizing contract design of firms if consumers have time-inconsistent preferences and are partially naive about it. We consider markets for two types of goods: goods with immediate costs and delayed benefits (investment goods) such as health club attendance, and goods with immediate benefits and delayed costs (leisure goods) such as credit card-financed consumption. We establish three features of the profit-maximizing contract design with partially naive time-inconsistent consumers. First, firms price investment goods below marginal cost. Second, firms price leisure goods above marginal cost. Third, for all types of goods firms introduce switching costs and charge back-loaded fees. The contractual design targets consumer misperception of future consumption and underestimation of the renewal probability. The predictions of the theory match the empirical contract design in the credit card, gambling, health club, life insurance, mail order, mobile phone, and vacation time-sharing industries. We also show that time inconsistency has adverse effects on consumer welfare only if consumers are naive."</t>
-  </si>
-  <si>
-    <t>Profit-maximizing contract design of firms if consumers have time-inconsistent preferences and are partially naive about it.</t>
-  </si>
-  <si>
     <t>"Hyperbolic discount functions induce dynamically inconsistent preferences, implying a motive for consumers to constrain their own future choices. This paper analyzes the decisions of a hyperbolic consumer who has access to an imperfect commitment technology: an illiquid asset whose sale must be initiated one period before the sale proceeds are received. The model predicts that consumption tracks income, and the model explains why consumers have asset-specific marginal propensities to consume. The model suggests that financial innovation may have caused the ongoing decline in U. S. savings rates, since financial innovation increases liquidity, eliminating commitment opportunities. Finally, the model implies that financial market innovation may reduce welfare by providing “too much” liquidity."</t>
   </si>
   <si>
@@ -543,21 +477,12 @@
     <t>find it here: https://escholarship.org/uc/item/7t44m5b0</t>
   </si>
   <si>
-    <t>"The authors examine self-control problems--modeled as time-inconsistent, present-biased preferences--in a model where a person must do an activity exactly once. They emphasize two distinctions: do activities involve immediate costs or immediate rewards, and are people sophisticated or naive about future self-control problems? Naive people procrastinate immediate-cost activities and preproperate--do too soon--immediate-reward activities. Sophistication mitigates procrastination but exacerbates preproperation. Moreover, with immediate costs, a small present bias can severely harm only naive people, whereas with immediate rewards it can severely harm only sophisticated people. Lessons for savings, addiction, and elsewhere are discussed."</t>
-  </si>
-  <si>
     <t>"Recent models of procrastination due to self-control problems assume that a procrastinator considers just one option and is unaware of her self-control problems. We develop a model where a person chooses from a menu of options and is partially aware of her self-control problems. This menu model replicates earlier results and generates new ones. A person might forgo completing an attractive option because she plans to complete a more attractive but never-to-be-completed option. Hence, providing a nonprocrastinator additional options can induce procrastination, and a person may procrastinate worse pursuing important goals than unimportant ones."</t>
   </si>
   <si>
     <t>Model where a person chooses from a menu of options and is partially aware of her self-control problems.</t>
   </si>
   <si>
-    <t>Sophistication and naivete, first-degree price discrimination, third-degree price discrimination, privacy.</t>
-  </si>
-  <si>
-    <t>Contingent charges in a stylized setting with naive and sophisticated consumers. Context of bank accounts.</t>
-  </si>
-  <si>
     <t>Experimental evidence on overconfidence about memory.</t>
   </si>
   <si>
@@ -600,15 +525,9 @@
     <t>forthcoming (2016)</t>
   </si>
   <si>
-    <t xml:space="preserve">Firms acquire and use information about consumer naivete for designing offers. </t>
-  </si>
-  <si>
     <t>Researchers have documented several simple correlates of the tendency to make financial mistakes.</t>
   </si>
   <si>
-    <t>Likely that firms also have access to some—perhaps different and probably partial—information regarding naivete. This is especially so given recent technological advances in collecting and processing information about individual consumers.</t>
-  </si>
-  <si>
     <t>“In classical settings, perfect discrimination always maximizes welfare given the number of firms in the market."</t>
   </si>
   <si>
@@ -624,12 +543,6 @@
     <t>"We look at the supply side of the credit card market to analyze the pricing and advertising strategies of credit card offers. First, we show that card issuers target poorer and less educated customers with more steeply backward loaded fees (lower introductory APR but much higher late- and over-limit fees), compared to cards offered to educated and richer customers. Second, issuers use rewards programs to screen for unobservable borrower types. Conditional on the same borrower type, cards with rewards such as low Introductory APR, Cash back or Points programs, also have more steeply backward loaded fees, than cards without these salient rewards. In contrast, cards with Miles programs, which are offered only to the most educated and richest consumers, rely much less on backward loaded fees. These findings are in line with predictions from behavioral contract theory that shrouded (or backward loaded) pricing should occur in markets with naïve consumers while products offered to sophisticated consumers cannot be shrouded and need to be priced upfront. Finally, using shocks to the credit worthiness of customers via increases in state level unemployment insurance, we show that card issuers rely more heavily on backward loaded and hidden fees when customers are less exposed to negative cash flow shocks."</t>
   </si>
   <si>
-    <t>"We study the welfare effects of an increase in firms’ information about consumer naivete in a simple reduced-form model in which competitive firms can introduce distortionary fees that naive consumers ignore when making purchase decisions. We establish that our model captures many markets—including those for credit, banking, hotels, gambling, and mobile phones—in which consumer naivete has been invoked as playing an important role. While in natural analogues with rational consumers (we show) seller information about consumers always increases social welfare, we identify arguably weak conditions under which seller information about consumer naivete lowers welfare. When some consumers are naive, a participation distortion arises because the additional profits from naive consumers lead competitive firms to lower transparent prices below cost, and an exploitation distortion arises from the socially costly hidden fees firms charge. Dueto seller information about consumer naivete, (i) the participation distortion increases unless the demand curve is sufficiently concave; (ii) the exploitation distortion increases if the social cost of hidden fees satisfies decreasing absolute convexity; and (iii) the interaction of the two effects further lowers social welfare. We also identify conditions under which perfect seller information about consumer naivete hurts both types of consumers."</t>
-  </si>
-  <si>
-    <t>"Contingent charges for financial services, such as fees for unauthorized overdrafts, are often controversial. We study the economics of contingent charges in a stylized setting with naive and sophisticated consumers. We contrast situations where the naive benefit from the presence of sophisticated consumers with situations where competition works to subsidize the sophisticated at the expense of the naive, arguably unfairly. The case for regulatory intervention in these situations depends in good part, but not only, on the weight placed on distributional concerns. The economic and legal issues at stake are well illustrated by a case on bank charges recently decided by the UK Supreme Court."</t>
-  </si>
-  <si>
     <t>"We develop a model of a competitive market for non-linear credit contracts, and analyze the contract choices, loan-repayment behavior, and welfare of sophisticated and non-sophisticated borrowers with a taste for immediate gratification. Consistent with many credit cards and subprime mortgages, the baseline repayment terms of a competitive-equilibrium contract are cheap, but they are also inefficiently front-loaded and delays require paying large penalties. Non-sophisticated borrowers tend to borrow too much despite credit being for future consumption, and then to both pay the penalties and repay in an ex-ante suboptimal back-loaded way, leading to welfare losses that are typically large. Prohibiting large penalties for deferring small amounts of repayment—akin to some recent new regulations in the US credit-card and mortgage markets—can raise welfare."</t>
   </si>
   <si>
@@ -648,9 +561,6 @@
     <t>"We study monopolistic design of a menu of non-linear tariffs when consumers have biased prior beliefs regarding their future preferences. In our model, consumers are "optimistic'' if their prior belief assigns too much weight to states of nature characterized by large gains from trade. A consumer's degree of optimism is his private information, and the monopolist employs the menu of non-linear tariffs to screen it. We characterize the optimal menu and show that the existence of non-common priors has significant qualitative implications for price discrimination and ex-post inefficiency. Finally, the characterization enables us to interpret aspects of real-life menus of non-linear tariffs."</t>
   </si>
   <si>
-    <t>"In the presence of naive consumers, a participation distortion arises in competitive markets because the additional profits from naive consumers lead competitive firms to lower transparent prices below cost. Using a simple calibration, we argue that the participation distortion in the US credit-card market may be massive. Our results call for a redirection of some of the large amount of empirical research on the quantification of the welfare losses from market power, to the quantification of welfare losses that are due to the firms’ reactions to consumer misunderstandings."</t>
-  </si>
-  <si>
     <t>Participation distortion.</t>
   </si>
   <si>
@@ -669,7 +579,133 @@
     <t>Private information about consumer naïveté.</t>
   </si>
   <si>
-    <t>Second-degree naivete-based discrimination: asking how firms may screen consumers according to naïveté.</t>
+    <t>“We analyze a simple reduced-form pricing model in the tradition of Gabaix and Laibson (2006), where firms can, potentially inefficiently, induce naïve consumers to pay unexpected charges.”</t>
+  </si>
+  <si>
+    <t>“We develop the model in the context of mobile phone overage charges, but the same mechanism may apply to bank account overdraft fees and hotel add-ons as well. The idea that sophisticated consumers pay avoidance costs is discussed by Gabaix and Laibson (2006) in the context of hotels and by Armstrong and Vickers (2012) in the context of bank accounts. One important difference is that consistent with our arguments in Section III.A for studying naïvete-based discrimination in pools of consumers with the same beliefs—in our setting both naïve and sophisticated consumers expect to undertake costly avoidance, whereas in previous work only sophisticated consumers do.”</t>
+  </si>
+  <si>
+    <t>“Our leading application is a credit market where partially naïve present-biased borrowers underestimate their willingness to pay costly interest on a loan, and firms take advantage of this mistake by lending more than is socially optimal. Our model is a variant of that in Heidhues and Köszegi (2010), which in turn builds on previous work by DellaVigna and Malmendier (2004) and Eliaz and Spiegler (2006). While the logic of the equilibrium contracts signed by consumers is similar to that in these previous papers, we move beyond the literature in asking how naïvete-based discrimination affects welfare.”</t>
+  </si>
+  <si>
+    <t>“In addition, complementing our analysis of the welfare effects of outside information about consumer naïvete, several existing papers (e.g., Eliaz and Spiegler 2006, 2008; Heidhues and Koszegi 2010) study “second-degree naïvete-based discrimination,” asking how firms may screen consumers according to naïvete.”</t>
+  </si>
+  <si>
+    <t>"For many goods and services such as electricity, health care, cellular phone service, debit-card transactions, or those sold with loyalty discounts, the price of the next unit of service depends on past usage. As a result, consumers who are inattentive to their past usage but are aware of contract terms may remain uncertain about the price of the next unit. I develop a model of inattentive consumption, derive equilibrium pricing when consumers are inattentive, and evaluate bill-shock regulation requiring firms to disclose information that substitutes for attention. When inattentive consumers are sophisticated but heterogeneous in their expected demand, bill-shock regulation reduces social welfare in fairly-competitive markets, which may be the effect of the Federal Communication Commission's recent bill-shock agreement. If some consumers are attentive while others naïvely fail to anticipate their own inattention, however, then bill-shock regulation increases social welfare and can benefit consumers. Hence, requiring zero-balance alerts in addition to the Federal Reserve's new opt-in rule for debit-card overdraft protection may benefit consumers."</t>
+  </si>
+  <si>
+    <t>“In our second model of add-on pricing, inspired by Grubb (2015), both naïve and sophisticated consumers expect to take costly steps to avoid an expensive add-on, but naïve consumers fail to do so.”</t>
+  </si>
+  <si>
+    <t>“In addition, researchers have documented several simple correlates of the tendency to make financial mistakes, [For instance, Agarwal (2009) finds an age pattern in the number of financial mistakes individuals make, Calvet, Campbell, and Sodini (2007) report that consumers with lower levels of education or income make more investing mistakes, and Stango and Zinman (2011) document that it is possible to predict, based on two simple hypothetical questions on the Survey of Consumer Finances, the consumers who buy the most overpriced loans.] making it likely that firms also have access to some—perhaps different and probably partial—information regarding naïvete. As emphasized by Bar-Gill and Warren (2008), this is especially so given recent technological advances in collecting and processing information about individual consumers.”</t>
+  </si>
+  <si>
+    <t>“Contracting with Diversely naïve Agents"</t>
+  </si>
+  <si>
+    <t>"In standard contract-theoretic models, the underlying assumption is that agent types differ in their preference or cost parameters, and the principal's objective is to design contracts in order to screen this type. We study a contract-theoretic model in which the heterogeneity among agent types is of a “cognitive” nature. In our model, the agent has dynamically inconsistent preferences. Agent types differ only in their degree of “sophistication”, that is, their ability to forecast the change in their future tastes. We fully characterize the menu of contracts which the principal offers in order to screen the agent's sophistication. The menu does not exclude any type: it provides a perfect commitment device for relatively sophisticated types, and “exploitative” contracts which involve speculation with relatively naïve types. More naïve types are more heavily exploited and generate a greater profit for the principal. Our results allow us to interpret real-life contractual arrangements in a variety of industries."</t>
+  </si>
+  <si>
+    <t>"How do rational firms respond to consumer biases? In this paper we analyze the profit-maximizing contract design of firms if consumers have time-inconsistent preferences and are partially naïve about it. We consider markets for two types of goods: goods with immediate costs and delayed benefits (investment goods) such as health club attendance, and goods with immediate benefits and delayed costs (leisure goods) such as credit card-financed consumption. We establish three features of the profit-maximizing contract design with partially naïve time-inconsistent consumers. First, firms price investment goods below marginal cost. Second, firms price leisure goods above marginal cost. Third, for all types of goods firms introduce switching costs and charge back-loaded fees. The contractual design targets consumer misperception of future consumption and underestimation of the renewal probability. The predictions of the theory match the empirical contract design in the credit card, gambling, health club, life insurance, mail order, mobile phone, and vacation time-sharing industries. We also show that time inconsistency has adverse effects on consumer welfare only if consumers are naïve."</t>
+  </si>
+  <si>
+    <t>Profit-maximizing contract design of firms if consumers have time-inconsistent preferences and are partially naïve about it.</t>
+  </si>
+  <si>
+    <t>"The authors examine self-control problems--modeled as time-inconsistent, present-biased preferences--in a model where a person must do an activity exactly once. They emphasize two distinctions: do activities involve immediate costs or immediate rewards, and are people sophisticated or naïve about future self-control problems? naïve people procrastinate immediate-cost activities and preproperate--do too soon--immediate-reward activities. Sophistication mitigates procrastination but exacerbates preproperation. Moreover, with immediate costs, a small present bias can severely harm only naïve people, whereas with immediate rewards it can severely harm only sophisticated people. Lessons for savings, addiction, and elsewhere are discussed."</t>
+  </si>
+  <si>
+    <t>“Prudence is a commonly assumed property of the consumption-utility function that is equivalent to the precautionary savings motive (Leland (1968)). Numerous papers, including empirical studies by Parker and Preston (2005) and Ventura and Eisenhauer (2006), and experimental studies by Deck and Schlesinger (2014) and Noussair, Trautmann, and van de Kuilen (2014), find that the vast majority of the population is prudent. This suggests that in the credit domain, naïvete-based discrimination strictly lowers welfare.”</t>
+  </si>
+  <si>
+    <t>"We study the welfare effects of an increase in firms’ information about consumer naïvete in a simple reduced-form model in which competitive firms can introduce distortionary fees that naïve consumers ignore when making purchase decisions. We establish that our model captures many markets—including those for credit, banking, hotels, gambling, and mobile phones—in which consumer naïvete has been invoked as playing an important role. While in natural analogues with rational consumers (we show) seller information about consumers always increases social welfare, we identify arguably weak conditions under which seller information about consumer naïvete lowers welfare. When some consumers are naïve, a participation distortion arises because the additional profits from naïve consumers lead competitive firms to lower transparent prices below cost, and an exploitation distortion arises from the socially costly hidden fees firms charge. Dueto seller information about consumer naïvete, (i) the participation distortion increases unless the demand curve is sufficiently concave; (ii) the exploitation distortion increases if the social cost of hidden fees satisfies decreasing absolute convexity; and (iii) the interaction of the two effects further lowers social welfare. We also identify conditions under which perfect seller information about consumer naïvete hurts both types of consumers."</t>
+  </si>
+  <si>
+    <t>“For instance, a casino may provide alcohol below cost and create an overly glittery environment to encourage naïve consumers to gamble more. Our working paper, Heidhues and Köszegi (working paper, 2014) formalizes this application.”</t>
+  </si>
+  <si>
+    <t>Sophistication and naïvete, first-degree price discrimination, third-degree price discrimination, privacy.</t>
+  </si>
+  <si>
+    <t>"Contingent charges for financial services, such as fees for unauthorized overdrafts, are often controversial. We study the economics of contingent charges in a stylized setting with naïve and sophisticated consumers. We contrast situations where the naïve benefit from the presence of sophisticated consumers with situations where competition works to subsidize the sophisticated at the expense of the naïve, arguably unfairly. The case for regulatory intervention in these situations depends in good part, but not only, on the weight placed on distributional concerns. The economic and legal issues at stake are well illustrated by a case on bank charges recently decided by the UK Supreme Court."</t>
+  </si>
+  <si>
+    <t>Contingent charges in a stylized setting with naïve and sophisticated consumers. Context of bank accounts.</t>
+  </si>
+  <si>
+    <t>“One of the key assumptions of our model is that naïve consumers incur unexpected charges. This assumption is made in different forms in many papers in behavioral industrial organization and is consistent with empirical facts from a number of industries. For instance, Stango and Zinman (2009) find that consumers incur many avoidable fees. Grubb and Osborne (2015) estimate that mobile phone consumers are inattentive to past usage and underappreciate the variance of their own demand. The Office of Fair Trading (2008) reports that most consumers who use overdraft protection do so unexpectedly. Evidence by Agarwal, Gabaix, and Laibson (2008) indicates that many credit card consumers seem to forget or not to know about various fees issuers impose. Ausubel (1991) documents that consumers receiving credit card solicitations overrespond to the introductory (“teaser”) interest rate relative to the post-introductory rate, suggesting that they end up revolving debt more than they intended or expected. Regulators are worried about the “bill shock” many mobile phone consumers face when they unknowingly run up charges (Federal Communications Commission (2010)). Other work includes Shui and Ausubel (2004) for credit cards, Armstrong and Vickers (2012) for bank accounts, Hall (1997) for printers, and Bucks and Pence (2008), and Gerardi, Goette, and Meier (2009) for mortgages.”</t>
+  </si>
+  <si>
+    <t>“Some other applications naturally fit in our category of markets with sophisticated-side distortions. First, firms may offer a rebate that consumers must exert costly effort to cash in, and while all consumers expect to do so, naïve consumers forget. This hypothesis is consistent with experimental evidence on overconfidence about memory by Ericson (2011).”</t>
+  </si>
+  <si>
+    <t>“Then the savings naïve consumers unexpectedly forgo is the additional price, and the effort cost sophisticated consumers pay to return the rebate creates a sophisticated-side distortion. Second, in a dynamic setting firms may increase prices on consumers who automatically renew their contracts, and while all consumers expect to search for better deals to avoid the trap, only sophisticated consumers do. Kiss (working paper, 2014) documents that consumers forgo substantial savings by failing to switch providers in the Hungarian market for mandatory auto liability insurance. Using a structural model, he also estimates that the primary reason for low switching rates is that consumers do not pay attention to the possibility of switching.”</t>
+  </si>
+  <si>
+    <t>“Our analysis reveals that in a market with a homogeneous distortion, the impact of naïvete-based discrimination hinges on whether k(·) satisfies decreasing absolute convexity (i.e., whether k′(a)/k′′(a) is increasing in a). In the spirit of the sufficient-statistics approach to welfare analysis (Chetty, Raj (2009)), decreasing absolute convexity is (at least in principle) verifiable based on observable market outcomes.”</t>
+  </si>
+  <si>
+    <t>“The other central assumption is that firms acquire and use information about consumer naïvete for designing offers. Although not conclusive, some direct evidence is consistent with this assumption. Gurun, Matvos, and Seru (forthcoming) document that lenders targeted less sophisticated populations with ads for expensive mortgages. Ru, and Schoar (working paper, 2016) find that the offers credit card companies send to less educated borrowers feature more back-loaded payments, including low introductory interest rates but high late fees, penalty interest rates, and over-the-limit fees.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firms acquire and use information about consumer naïvete for designing offers. </t>
+  </si>
+  <si>
+    <t>Likely that firms also have access to some—perhaps different and probably partial—information regarding naïvete. This is especially so given recent technological advances in collecting and processing information about individual consumers.</t>
+  </si>
+  <si>
+    <t>“In considering how firms respond to the presence of naïve consumers, our article belongs to the growing literature on behavioral industrial organization. See Spiegler (2011) for an introduction to and overview of this literature.”</t>
+  </si>
+  <si>
+    <t>“Studying the effects of a different type of naïvete-based discrimination, Johnen (2016) shows that private information about consumer naïvete is valuable even in competitive markets in which private information about consumer preferences is worthless.”</t>
+  </si>
+  <si>
+    <t>Second-degree naïvete-based discrimination: asking how firms may screen consumers according to naïveté.</t>
+  </si>
+  <si>
+    <t>“On the Welfare Costs of naïvete in the US Credit-Card Market”</t>
+  </si>
+  <si>
+    <t>"In the presence of naïve consumers, a participation distortion arises in competitive markets because the additional profits from naïve consumers lead competitive firms to lower transparent prices below cost. Using a simple calibration, we argue that the participation distortion in the US credit-card market may be massive. Our results call for a redirection of some of the large amount of empirical research on the quantification of the welfare losses from market power, to the quantification of welfare losses that are due to the firms’ reactions to consumer misunderstandings."</t>
+  </si>
+  <si>
+    <t>“Exploiting Naïvete about Self-Control in the Credit Market”</t>
+  </si>
+  <si>
+    <t>Policy proposals</t>
+  </si>
+  <si>
+    <t>Section IV.B. Regulatory Interventions -&gt; Shrouded equilibria generate economic inefficiencies. However, regulatory remedies may not be available. It is difficult to outlaw ignorance or misleading (but accurate) marketing. If regulators find evidence for inefficient shrouding, they have four types of (imperfect) regulatory remedies that they might consider employing. Of course, the usual costs of regulation could easily outweigh its possible benefit. ...</t>
+  </si>
+  <si>
+    <t>So, regulations for shrouding/unshrouding.</t>
+  </si>
+  <si>
+    <t>Both for theoretical comparison and as a possible policy intervention, we also consider competitive markets in which disproportionately large penalties for deferring small amounts of repayment are forbidden.</t>
+  </si>
+  <si>
+    <t>Accordingly, for any positive proportion of non-sophisticated borrowers in the population, a policy of disallowing large penalties for deferring small amounts of repayment—akin to the aim of recent new US regulations limiting prepayment penalties on mortgages and certain interest charges and fees on credit cards—can raise welfare.</t>
+  </si>
+  <si>
+    <t>Section VI. Conclusion -&gt; Two major forms of government intervention in economic exchange are competition policy and consumer protection. Whereas competition policy is—at least in principle—heavily informed by theoretical and empirical economic analysis, consumer protection is almost not at all. We do not see why consumer protection could not have equally rigorous economic foundations. ...</t>
+  </si>
+  <si>
+    <t>A whole chapter on Naive Consumers (4.).</t>
+  </si>
+  <si>
+    <t>6. Conclusion -&gt; The results suggest that regulators should require bill-shock alerts for services such as overdraft protection that are not differentially priced to sort consumers across contracts. ...</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Turning to policy implications, we show that a cap on bonuses can restore balance in agents’ incentives, and even reestablish the first-best, as long as it does not induce employers to switch to some alternative “currency” to screen employees. When it does, the displacement of screening to a less efficient dimension can make regulation of either bonuses or total compensation welfare reducing. In particular, all Section V. Regulating Compensation ... Section VIII. Related Theories is quite interesting as well.</t>
+  </si>
+  <si>
+    <t>(third-degree) price-discriminaton only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In an age in which individuals are increasingly concerned about the preservation of privacy, it is important to understand the welfare consequences that may result from the collection of data on consumersípreferences. Policy discussion often assumes that this will favor producers and hurt consumers. This may be a reasonable assumption if the data ends up in the hands of producers. But this need not be the case. </t>
   </si>
 </sst>
 </file>
@@ -703,7 +739,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -722,8 +758,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -731,11 +773,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -764,12 +835,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -778,6 +843,39 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1093,13 +1191,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5008D6-C82B-E34F-A651-D92B5F4A851F}">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1107,15 +1205,16 @@
     <col min="1" max="1" width="56.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="108.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="133.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="133.33203125" style="3" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="173.1640625" style="4" customWidth="1"/>
     <col min="6" max="6" width="26.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="57.83203125" style="3" customWidth="1"/>
     <col min="8" max="8" width="53.83203125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="50.6640625" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1132,7 +1231,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>4</v>
@@ -1140,1394 +1239,1488 @@
       <c r="H1" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="153" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="13">
+      <c r="I1" s="18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="14">
         <v>2006</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="D2" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="20" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="I3" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>54</v>
+        <v>185</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" ht="119" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" ht="119" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="14">
         <v>2010</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="C5" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>29</v>
+        <v>186</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I6" s="22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" ht="153" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="13">
+      <c r="I7" s="22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="14">
         <v>2015</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="C8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>53</v>
+        <v>189</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="G9" s="5"/>
+        <v>127</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>221</v>
+      </c>
       <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="13">
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="14">
         <v>2007</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="C10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6" t="s">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" spans="1:9" ht="170" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="16">
+        <v>2016</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="21" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="136" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="5">
-        <v>2016</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B13" s="14">
+        <v>2006</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" ht="136" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="13">
-        <v>2006</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="F13" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>29</v>
+        <v>186</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I14" s="19"/>
+    </row>
+    <row r="15" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="5">
+      <c r="I15" s="19"/>
+    </row>
+    <row r="16" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="16">
         <v>2014</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="20" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="14">
+        <v>2015</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="13">
-        <v>2015</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="D17" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="20" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" ht="153" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="5">
+      <c r="I18" s="19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="16">
         <v>2004</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="C19" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="20"/>
+    </row>
+    <row r="20" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B20" s="5">
         <v>1997</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="E20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="19"/>
+    </row>
+    <row r="21" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="B21" s="5">
         <v>1999</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="E21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="B22" s="5">
         <v>2001</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>146</v>
+        <v>180</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>129</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I22" s="19"/>
+    </row>
+    <row r="23" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B23" s="5">
         <v>1968</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>146</v>
+        <v>196</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>129</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I23" s="19"/>
+    </row>
+    <row r="24" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B24" s="5">
         <v>2005</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="19"/>
+    </row>
+    <row r="25" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="B25" s="5">
         <v>2006</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>146</v>
+        <v>196</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>129</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I25" s="19"/>
+    </row>
+    <row r="26" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B26" s="5">
         <v>2014</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>146</v>
+        <v>196</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>129</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I26" s="19"/>
+    </row>
+    <row r="27" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B27" s="5">
         <v>2014</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>146</v>
+        <v>196</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>129</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:8" ht="170" x14ac:dyDescent="0.2">
+      <c r="I27" s="19"/>
+    </row>
+    <row r="28" spans="1:9" ht="170" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="D28" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>175</v>
-      </c>
       <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="13">
+      <c r="I28" s="19"/>
+    </row>
+    <row r="29" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="11">
         <v>2012</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>56</v>
+      <c r="C29" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>200</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>54</v>
+        <v>185</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+      <c r="I29" s="19"/>
+    </row>
+    <row r="30" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6" t="s">
-        <v>70</v>
+        <v>202</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I30" s="19"/>
+    </row>
+    <row r="31" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B31" s="5">
         <v>2011</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6" t="s">
-        <v>57</v>
+        <v>203</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="I31" s="19"/>
+    </row>
+    <row r="32" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6" t="s">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I32" s="19"/>
+    </row>
+    <row r="33" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B33" s="5">
         <v>2009</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6" t="s">
-        <v>62</v>
+        <v>205</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="I33" s="19"/>
+    </row>
+    <row r="34" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B34" s="5">
         <v>2008</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+      <c r="I34" s="19"/>
+    </row>
+    <row r="35" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="7" t="s">
-        <v>70</v>
+        <v>202</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
-    </row>
-    <row r="36" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="I35" s="19"/>
+    </row>
+    <row r="36" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B36" s="5">
         <v>2014</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+      <c r="I36" s="19"/>
+    </row>
+    <row r="37" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B37" s="5">
         <v>2009</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6" t="s">
-        <v>70</v>
+        <v>202</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+      <c r="I37" s="19"/>
+    </row>
+    <row r="38" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B38" s="5">
         <v>2015</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="7" t="s">
-        <v>70</v>
+        <v>202</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="H38" s="5"/>
-    </row>
-    <row r="39" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+      <c r="I38" s="19"/>
+    </row>
+    <row r="39" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B39" s="5">
         <v>2008</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="7" t="s">
-        <v>70</v>
+        <v>202</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="H39" s="5"/>
-    </row>
-    <row r="40" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+      <c r="I39" s="19"/>
+    </row>
+    <row r="40" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B40" s="5">
         <v>1991</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="7" t="s">
-        <v>70</v>
+        <v>202</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="H40" s="5"/>
-    </row>
-    <row r="41" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+      <c r="I40" s="19"/>
+    </row>
+    <row r="41" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B41" s="5">
         <v>2010</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="7" t="s">
-        <v>70</v>
+        <v>202</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="H41" s="5"/>
-    </row>
-    <row r="42" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+      <c r="I41" s="19"/>
+    </row>
+    <row r="42" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B42" s="5">
         <v>2004</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="7" t="s">
-        <v>70</v>
+        <v>202</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="I42" s="19"/>
+    </row>
+    <row r="43" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B43" s="5">
         <v>1997</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="7" t="s">
-        <v>70</v>
+        <v>202</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="H43" s="5"/>
-    </row>
-    <row r="44" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+      <c r="I43" s="19"/>
+    </row>
+    <row r="44" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B44" s="5">
         <v>2008</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="7" t="s">
-        <v>70</v>
+        <v>202</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="H44" s="5"/>
-    </row>
-    <row r="45" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+      <c r="I44" s="19"/>
+    </row>
+    <row r="45" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B45" s="5">
         <v>2009</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="7" t="s">
-        <v>70</v>
+        <v>202</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="H45" s="5"/>
-    </row>
-    <row r="46" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="I45" s="19"/>
+    </row>
+    <row r="46" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="H46" s="5"/>
-    </row>
-    <row r="47" spans="1:8" ht="170" x14ac:dyDescent="0.2">
+      <c r="I46" s="19"/>
+    </row>
+    <row r="47" spans="1:9" ht="170" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="H47" s="5"/>
-    </row>
-    <row r="48" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="I47" s="19"/>
+    </row>
+    <row r="48" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B48" s="5">
         <v>2009</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6" t="s">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="H48" s="5"/>
-    </row>
-    <row r="49" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="I48" s="19"/>
+    </row>
+    <row r="49" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B49" s="5">
         <v>2011</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6" t="s">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="H49" s="5"/>
-    </row>
-    <row r="50" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="I49" s="19"/>
+    </row>
+    <row r="50" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B50" s="5">
         <v>2008</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6" t="s">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I50" s="19"/>
+    </row>
+    <row r="51" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B51" s="5">
         <v>2007</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>147</v>
+        <v>88</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="H51" s="5"/>
-    </row>
-    <row r="52" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="I51" s="19"/>
+    </row>
+    <row r="52" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B52" s="5">
         <v>2010</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>147</v>
+        <v>88</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="H52" s="5"/>
-    </row>
-    <row r="53" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="I52" s="19"/>
+    </row>
+    <row r="53" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B53" s="5">
         <v>1920</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>147</v>
+        <v>88</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="H53" s="5"/>
-    </row>
-    <row r="54" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="I53" s="19"/>
+    </row>
+    <row r="54" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B54" s="5">
         <v>1933</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>147</v>
+        <v>88</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="H54" s="5"/>
-    </row>
-    <row r="55" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="I54" s="19"/>
+    </row>
+    <row r="55" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B55" s="5">
         <v>1980</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F55" s="14" t="s">
-        <v>147</v>
+        <v>96</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="H55" s="5"/>
-    </row>
-    <row r="56" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="I55" s="19"/>
+    </row>
+    <row r="56" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B56" s="5">
         <v>1981</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F56" s="14" t="s">
-        <v>147</v>
+        <v>96</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="H56" s="5"/>
-    </row>
-    <row r="57" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="I56" s="19"/>
+    </row>
+    <row r="57" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F57" s="14" t="s">
-        <v>147</v>
+        <v>96</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="H57" s="5"/>
-    </row>
-    <row r="58" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="I57" s="19"/>
+    </row>
+    <row r="58" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B58" s="5">
         <v>2004</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F58" s="14" t="s">
-        <v>147</v>
+        <v>96</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="H58" s="5"/>
-    </row>
-    <row r="59" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="I58" s="19"/>
+    </row>
+    <row r="59" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B59" s="5">
         <v>2005</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F59" s="14" t="s">
-        <v>147</v>
+        <v>96</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="H59" s="5"/>
-    </row>
-    <row r="60" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="I59" s="19"/>
+    </row>
+    <row r="60" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B60" s="5">
         <v>2006</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>147</v>
+        <v>96</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="H60" s="5"/>
-    </row>
-    <row r="61" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="I60" s="19"/>
+    </row>
+    <row r="61" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B61" s="5">
         <v>2006</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F61" s="14" t="s">
-        <v>147</v>
+        <v>96</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="H61" s="5"/>
-    </row>
-    <row r="62" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="I61" s="19"/>
+    </row>
+    <row r="62" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F62" s="14" t="s">
-        <v>147</v>
+        <v>96</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="H62" s="5"/>
-    </row>
-    <row r="63" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I62" s="19"/>
+    </row>
+    <row r="63" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B63" s="5">
         <v>2011</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="F63" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="F63" s="14" t="s">
-        <v>147</v>
-      </c>
       <c r="G63" s="5" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="I63" s="19"/>
+    </row>
+    <row r="64" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B64" s="5">
         <v>2016</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F64" s="14" t="s">
-        <v>147</v>
+        <v>210</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="H64" s="5"/>
-    </row>
-    <row r="65" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="I64" s="19"/>
+    </row>
+    <row r="65" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B65" s="5">
         <v>2008</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F65" s="14" t="s">
-        <v>147</v>
+        <v>187</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H65" s="5"/>
-    </row>
-    <row r="66" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="I65" s="19"/>
+    </row>
+    <row r="66" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B66" s="5">
         <v>2015</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>142</v>
+        <v>212</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="H66" s="5"/>
+      <c r="I66" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cited papers in NAIVETE-BASED DISCRIMINATION.xlsx
+++ b/Cited papers in NAIVETE-BASED DISCRIMINATION.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergeimolinari/Desktop/RM Behavioral Contract Theory/research_module/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF8000B-48A6-A148-BBFE-04ED278F05B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6595B93C-E483-A441-B935-A3C2D8344B65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="17500" xr2:uid="{4B174A89-2607-9749-ADDE-E0B6D10E6700}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4B174A89-2607-9749-ADDE-E0B6D10E6700}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="231">
   <si>
     <t>Authors</t>
   </si>
@@ -706,6 +706,22 @@
   </si>
   <si>
     <t xml:space="preserve">In an age in which individuals are increasingly concerned about the preservation of privacy, it is important to understand the welfare consequences that may result from the collection of data on consumersípreferences. Policy discussion often assumes that this will favor producers and hurt consumers. This may be a reasonable assumption if the data ends up in the hands of producers. But this need not be the case. </t>
+  </si>
+  <si>
+    <t>Finally, our paper does not analyze potential policy responses to price discrimination. For instance, a commonly advocated solution to privacy concerns is to require firms to obtain a consumer’s consent before using her private information. In on-going work, we investigate whether this policy helps in our framework, and find that it does not: because a naive consumer does not understand that the firm will use information to exploit her, she agrees to giving her information too easily. In addition, a regime with required consent may transfer even more money from naive to sophisticated consumers than does a regime without required consent.</t>
+  </si>
+  <si>
+    <t>What economic inefficiencies can unregulated contingent charges give rise to? When do they cause distributional e§ects that may be regarded as undesirable? Can regulation improve matters? If so, what form should it take? Apart from a regime of caveat emptor, where Örms ñ banks, say ñ are more-or-less free to o§er any contracts to their customers, including those with high contingent charges, the main policy options are:
+(a) require that banks make their terms for unauthorized overdrafts more prominent in their marketing materials and contracts;
+(b) require, where technically feasible, banks to warn consumers in advance when they request a transaction which will incur a contingent charge;
+(c) allow consumer to opt out of a bankís automatic overdraft facility (or, as a policy variant, require consumers to opt in to a bankís automatic overdraft facility), and
+(d) directly or indirectly place a cap on permitted contingent charges.</t>
+  </si>
+  <si>
+    <t>Interesting def of naïvete and sophistication -&gt; For example, it may be that the naive are irrational in some sense, or it could just be that they lack information available to the sophisticated, perhaps because they lack incentive to get it.</t>
+  </si>
+  <si>
+    <t>Conclusion -&gt; Depending on the importance placed on distributional concerns, a stronger case for consumer protection regulation of contingent charges ñ though not necessarily by price control ñ is then apparent. A general issue for policy design towards markets with contrasting outcomes is the need for more analysis of distributional issues in retail markets, from which the industrial organization literature has normally steered clear.</t>
   </si>
 </sst>
 </file>
@@ -835,12 +851,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -876,6 +886,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1194,10 +1210,10 @@
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1239,34 +1255,34 @@
       <c r="H1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="16" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="153" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="12">
         <v>2006</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="20" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="18" t="s">
         <v>216</v>
       </c>
     </row>
@@ -1283,7 +1299,7 @@
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -1300,32 +1316,32 @@
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="19"/>
+      <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:9" ht="119" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="12">
         <v>2010</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="21" t="s">
+      <c r="H5" s="14"/>
+      <c r="I5" s="19" t="s">
         <v>219</v>
       </c>
     </row>
@@ -1342,7 +1358,7 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="20" t="s">
         <v>218</v>
       </c>
     </row>
@@ -1359,34 +1375,34 @@
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="20" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="153" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="12">
         <v>2015</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="21" t="s">
+      <c r="H8" s="14"/>
+      <c r="I8" s="19" t="s">
         <v>222</v>
       </c>
     </row>
@@ -1405,32 +1421,32 @@
         <v>221</v>
       </c>
       <c r="H9" s="5"/>
-      <c r="I9" s="19"/>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="12">
         <v>2007</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="20" t="s">
+      <c r="H10" s="14"/>
+      <c r="I10" s="18" t="s">
         <v>223</v>
       </c>
     </row>
@@ -1447,59 +1463,59 @@
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="19"/>
+      <c r="I11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="170" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="14">
         <v>2016</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="21" t="s">
+      <c r="H12" s="14"/>
+      <c r="I12" s="19" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="136" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="12">
         <v>2006</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="20" t="s">
+      <c r="H13" s="14"/>
+      <c r="I13" s="18" t="s">
         <v>223</v>
       </c>
     </row>
@@ -1516,7 +1532,7 @@
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="19"/>
+      <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
@@ -1531,59 +1547,59 @@
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="19"/>
+      <c r="I15" s="17"/>
     </row>
     <row r="16" spans="1:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="14">
         <v>2014</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="20" t="s">
+      <c r="H16" s="14"/>
+      <c r="I16" s="18" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="12">
         <v>2015</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="20" t="s">
+      <c r="H17" s="14"/>
+      <c r="I17" s="18" t="s">
         <v>225</v>
       </c>
     </row>
@@ -1600,276 +1616,300 @@
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="19" t="s">
+      <c r="I18" s="17" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="153" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="14">
         <v>2004</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="20"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="18" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="14">
         <v>1997</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="19"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="18" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="14">
         <v>1999</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="I21" s="19"/>
+      <c r="I21" s="18" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="14">
         <v>2001</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="19"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="18" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="14">
         <v>1968</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6" t="s">
+      <c r="D23" s="13"/>
+      <c r="E23" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="19"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="18" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="14">
         <v>2005</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6" t="s">
+      <c r="D24" s="13"/>
+      <c r="E24" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="19"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="18" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="14">
         <v>2006</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6" t="s">
+      <c r="D25" s="13"/>
+      <c r="E25" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="19"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="18" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="14">
         <v>2014</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6" t="s">
+      <c r="D26" s="13"/>
+      <c r="E26" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="H26" s="5"/>
-      <c r="I26" s="19"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="18" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="27" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="14">
         <v>2014</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6" t="s">
+      <c r="D27" s="13"/>
+      <c r="E27" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="19"/>
-    </row>
-    <row r="28" spans="1:9" ht="170" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+      <c r="H27" s="14"/>
+      <c r="I27" s="18" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="204" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="19"/>
-    </row>
-    <row r="29" spans="1:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
+      <c r="H28" s="14"/>
+      <c r="I28" s="19" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="323" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="12">
         <v>2012</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="H29" s="5"/>
-      <c r="I29" s="19"/>
+      <c r="H29" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
@@ -1884,97 +1924,103 @@
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
-      <c r="I30" s="19"/>
+      <c r="I30" s="20" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="31" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="14">
         <v>2011</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6" t="s">
+      <c r="D31" s="13"/>
+      <c r="E31" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="H31" s="5"/>
-      <c r="I31" s="19"/>
-    </row>
-    <row r="32" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
+      <c r="H31" s="14"/>
+      <c r="I31" s="18" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6" t="s">
+      <c r="D32" s="13"/>
+      <c r="E32" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="H32" s="5"/>
-      <c r="I32" s="19"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="18" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="33" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="14">
         <v>2009</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6" t="s">
+      <c r="D33" s="13"/>
+      <c r="E33" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="H33" s="5"/>
-      <c r="I33" s="19"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="18"/>
     </row>
     <row r="34" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="14">
         <v>2008</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6" t="s">
+      <c r="D34" s="13"/>
+      <c r="E34" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="19"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="18"/>
     </row>
     <row r="35" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
@@ -1989,101 +2035,101 @@
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
-      <c r="I35" s="19"/>
+      <c r="I35" s="17"/>
     </row>
     <row r="36" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="14">
         <v>2014</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="H36" s="5"/>
-      <c r="I36" s="19"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="18"/>
     </row>
     <row r="37" spans="1:9" ht="136" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="14">
         <v>2009</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6" t="s">
+      <c r="D37" s="13"/>
+      <c r="E37" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="H37" s="5"/>
-      <c r="I37" s="19"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="18"/>
     </row>
     <row r="38" spans="1:9" ht="136" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="14">
         <v>2015</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="7" t="s">
+      <c r="D38" s="13"/>
+      <c r="E38" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="H38" s="5"/>
-      <c r="I38" s="19"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="18"/>
     </row>
     <row r="39" spans="1:9" ht="136" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="14">
         <v>2008</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="7" t="s">
+      <c r="D39" s="13"/>
+      <c r="E39" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="H39" s="5"/>
-      <c r="I39" s="19"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="18"/>
     </row>
     <row r="40" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
@@ -2106,7 +2152,7 @@
         <v>159</v>
       </c>
       <c r="H40" s="5"/>
-      <c r="I40" s="19"/>
+      <c r="I40" s="17"/>
     </row>
     <row r="41" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
@@ -2129,7 +2175,7 @@
         <v>161</v>
       </c>
       <c r="H41" s="5"/>
-      <c r="I41" s="19"/>
+      <c r="I41" s="17"/>
     </row>
     <row r="42" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
@@ -2154,7 +2200,7 @@
       <c r="H42" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I42" s="19"/>
+      <c r="I42" s="17"/>
     </row>
     <row r="43" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
@@ -2177,7 +2223,7 @@
         <v>162</v>
       </c>
       <c r="H43" s="5"/>
-      <c r="I43" s="19"/>
+      <c r="I43" s="17"/>
     </row>
     <row r="44" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
@@ -2200,7 +2246,7 @@
         <v>163</v>
       </c>
       <c r="H44" s="5"/>
-      <c r="I44" s="19"/>
+      <c r="I44" s="17"/>
     </row>
     <row r="45" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
@@ -2223,7 +2269,7 @@
         <v>163</v>
       </c>
       <c r="H45" s="5"/>
-      <c r="I45" s="19"/>
+      <c r="I45" s="17"/>
     </row>
     <row r="46" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
@@ -2248,7 +2294,7 @@
         <v>207</v>
       </c>
       <c r="H46" s="5"/>
-      <c r="I46" s="19"/>
+      <c r="I46" s="17"/>
     </row>
     <row r="47" spans="1:9" ht="170" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
@@ -2273,7 +2319,7 @@
         <v>207</v>
       </c>
       <c r="H47" s="5"/>
-      <c r="I47" s="19"/>
+      <c r="I47" s="17"/>
     </row>
     <row r="48" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
@@ -2296,7 +2342,7 @@
         <v>166</v>
       </c>
       <c r="H48" s="5"/>
-      <c r="I48" s="19"/>
+      <c r="I48" s="17"/>
     </row>
     <row r="49" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
@@ -2319,7 +2365,7 @@
         <v>166</v>
       </c>
       <c r="H49" s="5"/>
-      <c r="I49" s="19"/>
+      <c r="I49" s="17"/>
     </row>
     <row r="50" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
@@ -2344,7 +2390,7 @@
       <c r="H50" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="I50" s="19"/>
+      <c r="I50" s="17"/>
     </row>
     <row r="51" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
@@ -2360,14 +2406,14 @@
       <c r="E51" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F51" s="12" t="s">
+      <c r="F51" s="10" t="s">
         <v>130</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>167</v>
       </c>
       <c r="H51" s="5"/>
-      <c r="I51" s="19"/>
+      <c r="I51" s="17"/>
     </row>
     <row r="52" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
@@ -2385,14 +2431,14 @@
       <c r="E52" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F52" s="12" t="s">
+      <c r="F52" s="10" t="s">
         <v>130</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>168</v>
       </c>
       <c r="H52" s="5"/>
-      <c r="I52" s="19"/>
+      <c r="I52" s="17"/>
     </row>
     <row r="53" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
@@ -2408,14 +2454,14 @@
       <c r="E53" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F53" s="12" t="s">
+      <c r="F53" s="10" t="s">
         <v>130</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>169</v>
       </c>
       <c r="H53" s="5"/>
-      <c r="I53" s="19"/>
+      <c r="I53" s="17"/>
     </row>
     <row r="54" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
@@ -2431,14 +2477,14 @@
       <c r="E54" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F54" s="12" t="s">
+      <c r="F54" s="10" t="s">
         <v>130</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>170</v>
       </c>
       <c r="H54" s="5"/>
-      <c r="I54" s="19"/>
+      <c r="I54" s="17"/>
     </row>
     <row r="55" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
@@ -2454,14 +2500,14 @@
       <c r="E55" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F55" s="12" t="s">
+      <c r="F55" s="10" t="s">
         <v>130</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>175</v>
       </c>
       <c r="H55" s="5"/>
-      <c r="I55" s="19"/>
+      <c r="I55" s="17"/>
     </row>
     <row r="56" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
@@ -2477,14 +2523,14 @@
       <c r="E56" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F56" s="12" t="s">
+      <c r="F56" s="10" t="s">
         <v>130</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>175</v>
       </c>
       <c r="H56" s="5"/>
-      <c r="I56" s="19"/>
+      <c r="I56" s="17"/>
     </row>
     <row r="57" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
@@ -2500,14 +2546,14 @@
       <c r="E57" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F57" s="12" t="s">
+      <c r="F57" s="10" t="s">
         <v>130</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>175</v>
       </c>
       <c r="H57" s="5"/>
-      <c r="I57" s="19"/>
+      <c r="I57" s="17"/>
     </row>
     <row r="58" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
@@ -2523,14 +2569,14 @@
       <c r="E58" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F58" s="12" t="s">
+      <c r="F58" s="10" t="s">
         <v>130</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>175</v>
       </c>
       <c r="H58" s="5"/>
-      <c r="I58" s="19"/>
+      <c r="I58" s="17"/>
     </row>
     <row r="59" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
@@ -2546,14 +2592,14 @@
       <c r="E59" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F59" s="12" t="s">
+      <c r="F59" s="10" t="s">
         <v>130</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>175</v>
       </c>
       <c r="H59" s="5"/>
-      <c r="I59" s="19"/>
+      <c r="I59" s="17"/>
     </row>
     <row r="60" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
@@ -2569,14 +2615,14 @@
       <c r="E60" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F60" s="12" t="s">
+      <c r="F60" s="10" t="s">
         <v>130</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>175</v>
       </c>
       <c r="H60" s="5"/>
-      <c r="I60" s="19"/>
+      <c r="I60" s="17"/>
     </row>
     <row r="61" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
@@ -2592,14 +2638,14 @@
       <c r="E61" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F61" s="12" t="s">
+      <c r="F61" s="10" t="s">
         <v>130</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>175</v>
       </c>
       <c r="H61" s="5"/>
-      <c r="I61" s="19"/>
+      <c r="I61" s="17"/>
     </row>
     <row r="62" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
@@ -2615,14 +2661,14 @@
       <c r="E62" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F62" s="12" t="s">
+      <c r="F62" s="10" t="s">
         <v>130</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>175</v>
       </c>
       <c r="H62" s="5"/>
-      <c r="I62" s="19"/>
+      <c r="I62" s="17"/>
     </row>
     <row r="63" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
@@ -2638,7 +2684,7 @@
       <c r="E63" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="F63" s="12" t="s">
+      <c r="F63" s="10" t="s">
         <v>130</v>
       </c>
       <c r="G63" s="5" t="s">
@@ -2647,7 +2693,7 @@
       <c r="H63" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="I63" s="19"/>
+      <c r="I63" s="17"/>
     </row>
     <row r="64" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
@@ -2663,14 +2709,14 @@
       <c r="E64" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="F64" s="12" t="s">
+      <c r="F64" s="10" t="s">
         <v>130</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>183</v>
       </c>
       <c r="H64" s="5"/>
-      <c r="I64" s="19"/>
+      <c r="I64" s="17"/>
     </row>
     <row r="65" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
@@ -2688,14 +2734,14 @@
       <c r="E65" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="F65" s="12" t="s">
+      <c r="F65" s="10" t="s">
         <v>130</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>211</v>
       </c>
       <c r="H65" s="5"/>
-      <c r="I65" s="19"/>
+      <c r="I65" s="17"/>
     </row>
     <row r="66" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
@@ -2720,7 +2766,7 @@
         <v>178</v>
       </c>
       <c r="H66" s="5"/>
-      <c r="I66" s="19"/>
+      <c r="I66" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cited papers in NAIVETE-BASED DISCRIMINATION.xlsx
+++ b/Cited papers in NAIVETE-BASED DISCRIMINATION.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergeimolinari/Desktop/RM Behavioral Contract Theory/research_module/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6595B93C-E483-A441-B935-A3C2D8344B65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB841E7-3428-9A4D-9DB2-20E3AF7F060B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4B174A89-2607-9749-ADDE-E0B6D10E6700}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="244">
   <si>
     <t>Authors</t>
   </si>
@@ -723,12 +723,74 @@
   <si>
     <t>Conclusion -&gt; Depending on the importance placed on distributional concerns, a stronger case for consumer protection regulation of contingent charges ñ though not necessarily by price control ñ is then apparent. A general issue for policy design towards markets with contrasting outcomes is the need for more analysis of distributional issues in retail markets, from which the industrial organization literature has normally steered clear.</t>
   </si>
+  <si>
+    <t>I present a general framework that shows how many policy questions can be answered by estimating a small set of sufficient statistics using program-evaluation methods. I use this framework to synthesize the modern literature on taxation, social insurance, and behavioral welfare economics. -&gt; focus on statitics, no regulations</t>
+  </si>
+  <si>
+    <t>Most of their paper focuses on regulations and possible policy porposals -&gt; "The results raise new questions about consumer financial protection policy." The conclusions serves as a good summary.</t>
+  </si>
+  <si>
+    <t>Older paper than the one above and no focus on poliy proposas.</t>
+  </si>
+  <si>
+    <t>The paper itself is the application of a policy proposal -&gt; "We estimate a model of plan choice, usage, and learning using a 2002-2004 panel of cellular bills. Accounting for firm price adjustment, we predict that implementing alerts in 2002-2004 would have lowered average annual consumer welfare by $33. We show that consumers are inattentive to past usage, meaning that bill-shock alerts are informative. Additionally, our estimates imply that consumers are overconfident, underestimating the variance of future calling. Overconfidence costs consumers $76 annually at 2002-2004 prices. Absent overconfidence, alerts would have little to no effect."</t>
+  </si>
+  <si>
+    <t>Chapter VIII is quite interesting, Ausubel was ahead of his time given that the paper was published in 1991.</t>
+  </si>
+  <si>
+    <t>Literally written by regulators.</t>
+  </si>
+  <si>
+    <t>The paper focuses on policy proposals. In particular, in Section VIII -&gt; "This paper takes the economist’s approach to antitrust policy—I consider policy decisions that would result in changes in competition in aftermarkets and measure the resulting changes in social welfare. The core of the analysis is a study of how markets would change in the face of a particular antitrust remedy."</t>
+  </si>
+  <si>
+    <r>
+      <t>Chapter 5 gives some space t</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">o </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>it: "A company that educates borrowers will lose the profits it makes on naïve households, but will gain no additional revenue from savvier households. As a result, neither lenders nor savvy households have an incentive to design or advocate for products that are more transparent, and competition does not drive out confusing or misleading products. Our paper underscores the fact that designing, promoting, and regulating products that fit the needs of disadvantaged borrowers is inherently challenging."</t>
+    </r>
+  </si>
+  <si>
+    <t>"Several policy and regulatory changes that have emerged from these discussions are based on the idea that na ̈ıve consumers were duped by advertising to take an expensive mortgages. While anecdotes have been used to justify these claims of deceptive advertising, there is no empirical study that has systematically investigated this issue. In this paper, we provide evidence for deceptive advertising using unique micro data on lending and advertising from the subprime mortgage market. We then compare the performance of a rich set of advertising models in explaining the data. The results reject the canonical models of informative advertising." -&gt; NO policy proposals though.</t>
+  </si>
+  <si>
+    <t>"Our analysis highlights an important dimension of the use of naiveté based discrimination that has been largely ignored in the literature. The interaction between behavioral screening and classic adverse selection is more complex than the prior theory literature has taken into account. There appears to be an inbuilt trade off between the immediate benefits from using naiveté based price discrimination and their impact on the credit risk of the customer pool. By drawing in customers who do not understand the credit terms that they are offered the issuer might end up with borrowers who have a higher chance that they can ultimately not afford the credit and default. The results in this paper provide evidence that credit card companies do target and screen sophisticated and naïve creditors differently, via the type of reward programs and pricing structures that are offered to customers. Issuers offer customers a menu of contracts to choose from; so rational customers on average can find contracts with less hidden charges. However naïve customers will also be able to find contracts that cater to their behavioral problems. But we can see that on average the menu of cards that is offered to more educated and richer customers contains fewer cards with hidden charges than the one offered to less educated and poorer customers. This means the latter group has to work harder to pick their card." -&gt; NO policy proposals though.</t>
+  </si>
+  <si>
+    <t>ALL THE PAPER IS SUPER INTEETING AND RELEVANT -&gt; "We analyze nine regulatory strategies that may help individuals avoid financial mistakes. We discuss laissez-faire, disclosure, nudges, financial “driver’s licenses,” advance directives, fiduciaries, asset safe harbors, and ex post and ex ante regulatory oversight. Finally, we pose seven questions for future research on cognitive limitations and associated policy responses."</t>
+  </si>
+  <si>
+    <t>No access, but it suggests that merely having disclosure regulations in place is insufficient; robust enforcement mechanisms are crucial to ensure compliance and protect consumers.</t>
+  </si>
+  <si>
+    <t>VERY IMPORTANT ARTICLE that makes the case for regulation.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -753,6 +815,14 @@
       <color rgb="FF2A2A2A"/>
       <name val="Helvetica"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -781,7 +851,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -818,11 +888,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -891,6 +1005,39 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1210,10 +1357,10 @@
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
+      <selection pane="bottomRight" activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1882,7 +2029,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="323" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="340" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>47</v>
       </c>
@@ -1978,7 +2125,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>54</v>
       </c>
@@ -1999,7 +2146,9 @@
         <v>153</v>
       </c>
       <c r="H33" s="14"/>
-      <c r="I33" s="18"/>
+      <c r="I33" s="18" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="34" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
@@ -2020,7 +2169,9 @@
       </c>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
-      <c r="I34" s="18"/>
+      <c r="I34" s="18" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="35" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
@@ -2035,7 +2186,9 @@
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
-      <c r="I35" s="17"/>
+      <c r="I35" s="24" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="36" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
@@ -2060,7 +2213,9 @@
         <v>155</v>
       </c>
       <c r="H36" s="14"/>
-      <c r="I36" s="18"/>
+      <c r="I36" s="20" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="37" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
@@ -2083,9 +2238,11 @@
         <v>156</v>
       </c>
       <c r="H37" s="14"/>
-      <c r="I37" s="18"/>
-    </row>
-    <row r="38" spans="1:9" ht="136" x14ac:dyDescent="0.2">
+      <c r="I37" s="18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="204" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>61</v>
       </c>
@@ -2106,314 +2263,342 @@
         <v>157</v>
       </c>
       <c r="H38" s="14"/>
-      <c r="I38" s="18"/>
+      <c r="I38" s="19" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="39" spans="1:9" ht="136" x14ac:dyDescent="0.2">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39" s="26">
         <v>2008</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="23" t="s">
+      <c r="D39" s="25"/>
+      <c r="E39" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="F39" s="14" t="s">
+      <c r="F39" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="G39" s="14" t="s">
+      <c r="G39" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="H39" s="14"/>
-      <c r="I39" s="18"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="28" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="40" spans="1:9" ht="136" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="26">
         <v>1991</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="7" t="s">
+      <c r="D40" s="25"/>
+      <c r="E40" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="H40" s="5"/>
-      <c r="I40" s="17"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="33" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="41" spans="1:9" ht="136" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="30">
         <v>2010</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="7" t="s">
+      <c r="D41" s="29"/>
+      <c r="E41" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="H41" s="5"/>
-      <c r="I41" s="17"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="34" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="42" spans="1:9" ht="136" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="26">
         <v>2004</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="7" t="s">
+      <c r="D42" s="25"/>
+      <c r="E42" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H42" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="I42" s="17"/>
+      <c r="I42" s="28" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="43" spans="1:9" ht="136" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="26">
         <v>1997</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="7" t="s">
+      <c r="D43" s="25"/>
+      <c r="E43" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="H43" s="5"/>
-      <c r="I43" s="17"/>
-    </row>
-    <row r="44" spans="1:9" ht="136" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
+      <c r="H43" s="26"/>
+      <c r="I43" s="28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="170" x14ac:dyDescent="0.2">
+      <c r="A44" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="26">
         <v>2008</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="7" t="s">
+      <c r="D44" s="25"/>
+      <c r="E44" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G44" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="H44" s="5"/>
-      <c r="I44" s="17"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="28" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="45" spans="1:9" ht="136" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="26">
         <v>2009</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="7" t="s">
+      <c r="D45" s="25"/>
+      <c r="E45" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="G45" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="H45" s="5"/>
-      <c r="I45" s="17"/>
-    </row>
-    <row r="46" spans="1:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
+      <c r="H45" s="26"/>
+      <c r="I45" s="28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="221" x14ac:dyDescent="0.2">
+      <c r="A46" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G46" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="H46" s="5"/>
-      <c r="I46" s="17"/>
-    </row>
-    <row r="47" spans="1:9" ht="170" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
+      <c r="H46" s="26"/>
+      <c r="I46" s="28" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A47" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G47" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="H47" s="5"/>
-      <c r="I47" s="17"/>
-    </row>
-    <row r="48" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
+      <c r="H47" s="26"/>
+      <c r="I47" s="28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="136" x14ac:dyDescent="0.2">
+      <c r="A48" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="26">
         <v>2009</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6" t="s">
+      <c r="D48" s="25"/>
+      <c r="E48" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="G48" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="H48" s="5"/>
-      <c r="I48" s="17"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="33" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="49" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="26">
         <v>2011</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6" t="s">
+      <c r="D49" s="25"/>
+      <c r="E49" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="G49" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="H49" s="5"/>
-      <c r="I49" s="17"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="28" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="50" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="26">
         <v>2008</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6" t="s">
+      <c r="D50" s="25"/>
+      <c r="E50" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="G50" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="H50" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="I50" s="17"/>
-    </row>
-    <row r="51" spans="1:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
+      <c r="I50" s="33" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="119" x14ac:dyDescent="0.2">
+      <c r="A51" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="26">
         <v>2007</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6" t="s">
+      <c r="D51" s="25"/>
+      <c r="E51" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="F51" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="G51" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="H51" s="5"/>
-      <c r="I51" s="17"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="28" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="52" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">

--- a/Cited papers in NAIVETE-BASED DISCRIMINATION.xlsx
+++ b/Cited papers in NAIVETE-BASED DISCRIMINATION.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergeimolinari/Desktop/RM Behavioral Contract Theory/research_module/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB841E7-3428-9A4D-9DB2-20E3AF7F060B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865A8076-63E5-9742-927F-FD2DB88FF13E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4B174A89-2607-9749-ADDE-E0B6D10E6700}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="251">
   <si>
     <t>Authors</t>
   </si>
@@ -777,13 +777,39 @@
     <t>"Our analysis highlights an important dimension of the use of naiveté based discrimination that has been largely ignored in the literature. The interaction between behavioral screening and classic adverse selection is more complex than the prior theory literature has taken into account. There appears to be an inbuilt trade off between the immediate benefits from using naiveté based price discrimination and their impact on the credit risk of the customer pool. By drawing in customers who do not understand the credit terms that they are offered the issuer might end up with borrowers who have a higher chance that they can ultimately not afford the credit and default. The results in this paper provide evidence that credit card companies do target and screen sophisticated and naïve creditors differently, via the type of reward programs and pricing structures that are offered to customers. Issuers offer customers a menu of contracts to choose from; so rational customers on average can find contracts with less hidden charges. However naïve customers will also be able to find contracts that cater to their behavioral problems. But we can see that on average the menu of cards that is offered to more educated and richer customers contains fewer cards with hidden charges than the one offered to less educated and poorer customers. This means the latter group has to work harder to pick their card." -&gt; NO policy proposals though.</t>
   </si>
   <si>
-    <t>ALL THE PAPER IS SUPER INTEETING AND RELEVANT -&gt; "We analyze nine regulatory strategies that may help individuals avoid financial mistakes. We discuss laissez-faire, disclosure, nudges, financial “driver’s licenses,” advance directives, fiduciaries, asset safe harbors, and ex post and ex ante regulatory oversight. Finally, we pose seven questions for future research on cognitive limitations and associated policy responses."</t>
-  </si>
-  <si>
     <t>No access, but it suggests that merely having disclosure regulations in place is insufficient; robust enforcement mechanisms are crucial to ensure compliance and protect consumers.</t>
   </si>
   <si>
     <t>VERY IMPORTANT ARTICLE that makes the case for regulation.</t>
+  </si>
+  <si>
+    <t>ALL THE PAPER IS SUPER INTERESTING AND RELEVANT -&gt; "We analyze nine regulatory strategies that may help individuals avoid financial mistakes. We discuss laissez-faire, disclosure, nudges, financial “driver’s licenses,” advance directives, fiduciaries, asset safe harbors, and ex post and ex ante regulatory oversight. Finally, we pose seven questions for future research on cognitive limitations and associated policy responses."</t>
+  </si>
+  <si>
+    <t>Calls for policies but no examples and pretty vague in the conclusion.</t>
+  </si>
+  <si>
+    <t>No calls for policies, just an analysis.</t>
+  </si>
+  <si>
+    <t>Introduction -&gt; "We expect the determinants of information disclosure discussed above to play an important role also in:
+Labor relationships. An employer who hires a worker typically receives letters of recommendation from previous employers describing the worker’s characteristics (talent, fairness, relations with colleagues), but also the tasks performed in upstream relationships.
+Insurance. Clients who purchase multiple policies are notified that relevant personal information (e.g. the number of accidents in the past few years and the type of risk borne by policy-holders) will be shared with partners.
+Financial relationships. Venture capitalists often disclose information about a project’s profitability, as well as personal characteristics of entrepreneurs, to other investors in order to convince them to join. Entrants in the credit card market get detailed information on potential customers from credit bureaus and other lenders.
+Regulation and taxation of multinational firms. Foreign regulators usually operate on the basis of the information provided by domestic agencies. Information-sharing between domestic and foreign tax authorities is often considered to be largely strategic and is at the heart of political debates."
+Conclusion -&gt; "The design of optimal policies in environments where disclosure may be driven by a combination of the diﬀerent determinants discussed above is an interesting line for future research. Similarly, relaxing the assumption of full commitment may deliver new insights into the welfare eﬀects of disclosure and the desirability of regulatory intervention in the area of privacy. We expect the main strategic eﬀects that we have highlighted to prove useful also in the study of these more complex environments."</t>
+  </si>
+  <si>
+    <t>Introductiion and Conclusion face the topic -&gt; definitely a suggested reading.</t>
+  </si>
+  <si>
+    <t>ALL THE PAPER -&gt; "We show that policy intervention banning the collection of personally identifiable data (e.g., through stricter privacy laws requiring user consent) is beneficial when consumers are naïve, competition is limited, and firms can price discriminate. Otherwise, privacy regulation often backfires."</t>
+  </si>
+  <si>
+    <t>Might have good insights.</t>
+  </si>
+  <si>
+    <t>Something on price floors, but no focus.</t>
   </si>
 </sst>
 </file>
@@ -825,7 +851,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -847,6 +873,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,7 +968,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -965,9 +997,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1039,6 +1068,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1357,10 +1392,10 @@
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I53" sqref="I53"/>
+      <selection pane="bottomRight" activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1402,34 +1437,34 @@
       <c r="H1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="153" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="11">
         <v>2006</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="18" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="17" t="s">
         <v>216</v>
       </c>
     </row>
@@ -1446,7 +1481,7 @@
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="16" t="s">
         <v>217</v>
       </c>
     </row>
@@ -1463,32 +1498,32 @@
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="17"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="119" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>2010</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="19" t="s">
+      <c r="H5" s="13"/>
+      <c r="I5" s="18" t="s">
         <v>219</v>
       </c>
     </row>
@@ -1505,7 +1540,7 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="19" t="s">
         <v>218</v>
       </c>
     </row>
@@ -1522,34 +1557,34 @@
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="19" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="153" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>2015</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="19" t="s">
+      <c r="H8" s="13"/>
+      <c r="I8" s="18" t="s">
         <v>222</v>
       </c>
     </row>
@@ -1568,32 +1603,32 @@
         <v>221</v>
       </c>
       <c r="H9" s="5"/>
-      <c r="I9" s="17"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>2007</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="18" t="s">
+      <c r="H10" s="13"/>
+      <c r="I10" s="17" t="s">
         <v>223</v>
       </c>
     </row>
@@ -1610,59 +1645,59 @@
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="17"/>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:9" ht="170" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>2016</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="19" t="s">
+      <c r="H12" s="13"/>
+      <c r="I12" s="18" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="136" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>2006</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="18" t="s">
+      <c r="H13" s="13"/>
+      <c r="I13" s="17" t="s">
         <v>223</v>
       </c>
     </row>
@@ -1679,7 +1714,7 @@
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="17"/>
+      <c r="I14" s="16"/>
     </row>
     <row r="15" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
@@ -1694,59 +1729,59 @@
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="17"/>
+      <c r="I15" s="16"/>
     </row>
     <row r="16" spans="1:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <v>2014</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="18" t="s">
+      <c r="H16" s="13"/>
+      <c r="I16" s="17" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <v>2015</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="18" t="s">
+      <c r="H17" s="13"/>
+      <c r="I17" s="17" t="s">
         <v>225</v>
       </c>
     </row>
@@ -1763,298 +1798,298 @@
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="17" t="s">
+      <c r="I18" s="16" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="153" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="13">
         <v>2004</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="18" t="s">
+      <c r="H19" s="13"/>
+      <c r="I19" s="17" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="13">
         <v>1997</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="18" t="s">
+      <c r="H20" s="13"/>
+      <c r="I20" s="17" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="13">
         <v>1999</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="I21" s="18" t="s">
+      <c r="I21" s="17" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="13">
         <v>2001</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="18" t="s">
+      <c r="H22" s="13"/>
+      <c r="I22" s="17" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="13">
         <v>1968</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13" t="s">
+      <c r="D23" s="12"/>
+      <c r="E23" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="18" t="s">
+      <c r="H23" s="13"/>
+      <c r="I23" s="17" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="13">
         <v>2005</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13" t="s">
+      <c r="D24" s="12"/>
+      <c r="E24" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="18" t="s">
+      <c r="H24" s="13"/>
+      <c r="I24" s="17" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="13">
         <v>2006</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13" t="s">
+      <c r="D25" s="12"/>
+      <c r="E25" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="18" t="s">
+      <c r="H25" s="13"/>
+      <c r="I25" s="17" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="13">
         <v>2014</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13" t="s">
+      <c r="D26" s="12"/>
+      <c r="E26" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="18" t="s">
+      <c r="H26" s="13"/>
+      <c r="I26" s="17" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="13">
         <v>2014</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13" t="s">
+      <c r="D27" s="12"/>
+      <c r="E27" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="H27" s="14"/>
-      <c r="I27" s="18" t="s">
+      <c r="H27" s="13"/>
+      <c r="I27" s="17" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="204" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="G28" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="19" t="s">
+      <c r="H28" s="13"/>
+      <c r="I28" s="18" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="340" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="11">
         <v>2012</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="H29" s="14" t="s">
+      <c r="H29" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="I29" s="18" t="s">
+      <c r="I29" s="17" t="s">
         <v>228</v>
       </c>
     </row>
@@ -2071,105 +2106,105 @@
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
-      <c r="I30" s="20" t="s">
+      <c r="I30" s="19" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="13">
         <v>2011</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13" t="s">
+      <c r="D31" s="12"/>
+      <c r="E31" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F31" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="G31" s="14" t="s">
+      <c r="G31" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="H31" s="14"/>
-      <c r="I31" s="18" t="s">
+      <c r="H31" s="13"/>
+      <c r="I31" s="17" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13" t="s">
+      <c r="D32" s="12"/>
+      <c r="E32" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="H32" s="14"/>
-      <c r="I32" s="18" t="s">
+      <c r="H32" s="13"/>
+      <c r="I32" s="17" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B33" s="13">
         <v>2009</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13" t="s">
+      <c r="D33" s="12"/>
+      <c r="E33" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F33" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="G33" s="14" t="s">
+      <c r="G33" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="H33" s="14"/>
-      <c r="I33" s="18" t="s">
+      <c r="H33" s="13"/>
+      <c r="I33" s="17" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="13">
         <v>2008</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13" t="s">
+      <c r="D34" s="12"/>
+      <c r="E34" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="18" t="s">
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="17" t="s">
         <v>223</v>
       </c>
     </row>
@@ -2186,772 +2221,802 @@
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
-      <c r="I35" s="24" t="s">
+      <c r="I35" s="23" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="13">
         <v>2014</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="F36" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="G36" s="14" t="s">
+      <c r="G36" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="H36" s="14"/>
-      <c r="I36" s="20" t="s">
+      <c r="H36" s="13"/>
+      <c r="I36" s="19" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="136" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="13">
         <v>2009</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13" t="s">
+      <c r="D37" s="12"/>
+      <c r="E37" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="F37" s="14" t="s">
+      <c r="F37" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="G37" s="14" t="s">
+      <c r="G37" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="H37" s="14"/>
-      <c r="I37" s="18" t="s">
+      <c r="H37" s="13"/>
+      <c r="I37" s="17" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="204" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="13">
         <v>2015</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="23" t="s">
+      <c r="D38" s="12"/>
+      <c r="E38" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="F38" s="14" t="s">
+      <c r="F38" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="G38" s="14" t="s">
+      <c r="G38" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="H38" s="14"/>
-      <c r="I38" s="19" t="s">
+      <c r="H38" s="13"/>
+      <c r="I38" s="18" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="136" x14ac:dyDescent="0.2">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="26">
+      <c r="B39" s="25">
         <v>2008</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="27" t="s">
+      <c r="D39" s="24"/>
+      <c r="E39" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="F39" s="26" t="s">
+      <c r="F39" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="G39" s="26" t="s">
+      <c r="G39" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="H39" s="26"/>
-      <c r="I39" s="28" t="s">
+      <c r="H39" s="25"/>
+      <c r="I39" s="27" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="136" x14ac:dyDescent="0.2">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B40" s="26">
+      <c r="B40" s="25">
         <v>1991</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="27" t="s">
+      <c r="D40" s="24"/>
+      <c r="E40" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="F40" s="26" t="s">
+      <c r="F40" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="G40" s="26" t="s">
+      <c r="G40" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="H40" s="26"/>
-      <c r="I40" s="33" t="s">
+      <c r="H40" s="25"/>
+      <c r="I40" s="32" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="136" x14ac:dyDescent="0.2">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="30">
+      <c r="B41" s="29">
         <v>2010</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="D41" s="29"/>
-      <c r="E41" s="31" t="s">
+      <c r="D41" s="28"/>
+      <c r="E41" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="F41" s="30" t="s">
+      <c r="F41" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="G41" s="30" t="s">
+      <c r="G41" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="H41" s="30"/>
-      <c r="I41" s="34" t="s">
+      <c r="H41" s="29"/>
+      <c r="I41" s="33" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="136" x14ac:dyDescent="0.2">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B42" s="26">
+      <c r="B42" s="25">
         <v>2004</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="27" t="s">
+      <c r="D42" s="24"/>
+      <c r="E42" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="F42" s="26" t="s">
+      <c r="F42" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="G42" s="26" t="s">
+      <c r="G42" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="H42" s="26" t="s">
+      <c r="H42" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="I42" s="28" t="s">
+      <c r="I42" s="27" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="136" x14ac:dyDescent="0.2">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B43" s="26">
+      <c r="B43" s="25">
         <v>1997</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="27" t="s">
+      <c r="D43" s="24"/>
+      <c r="E43" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="F43" s="26" t="s">
+      <c r="F43" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="G43" s="26" t="s">
+      <c r="G43" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="H43" s="26"/>
-      <c r="I43" s="28" t="s">
+      <c r="H43" s="25"/>
+      <c r="I43" s="27" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="170" x14ac:dyDescent="0.2">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B44" s="26">
+      <c r="B44" s="25">
         <v>2008</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D44" s="25"/>
-      <c r="E44" s="27" t="s">
+      <c r="D44" s="24"/>
+      <c r="E44" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="F44" s="26" t="s">
+      <c r="F44" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="G44" s="26" t="s">
+      <c r="G44" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="H44" s="26"/>
-      <c r="I44" s="28" t="s">
+      <c r="H44" s="25"/>
+      <c r="I44" s="27" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="136" x14ac:dyDescent="0.2">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B45" s="26">
+      <c r="B45" s="25">
         <v>2009</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D45" s="25"/>
-      <c r="E45" s="27" t="s">
+      <c r="D45" s="24"/>
+      <c r="E45" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="F45" s="26" t="s">
+      <c r="F45" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="G45" s="26" t="s">
+      <c r="G45" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="H45" s="26"/>
-      <c r="I45" s="28" t="s">
+      <c r="H45" s="25"/>
+      <c r="I45" s="27" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="221" x14ac:dyDescent="0.2">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="E46" s="25" t="s">
+      <c r="E46" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="F46" s="26" t="s">
+      <c r="F46" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="G46" s="26" t="s">
+      <c r="G46" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="H46" s="26"/>
-      <c r="I46" s="28" t="s">
+      <c r="H46" s="25"/>
+      <c r="I46" s="27" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="25" t="s">
+      <c r="D47" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="E47" s="25" t="s">
+      <c r="E47" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="F47" s="26" t="s">
+      <c r="F47" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="G47" s="26" t="s">
+      <c r="G47" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="H47" s="26"/>
-      <c r="I47" s="28" t="s">
+      <c r="H47" s="25"/>
+      <c r="I47" s="27" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="136" x14ac:dyDescent="0.2">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B48" s="26">
+      <c r="B48" s="25">
         <v>2009</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25" t="s">
+      <c r="D48" s="24"/>
+      <c r="E48" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="F48" s="26" t="s">
+      <c r="F48" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="G48" s="26" t="s">
+      <c r="G48" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="H48" s="26"/>
-      <c r="I48" s="33" t="s">
+      <c r="H48" s="25"/>
+      <c r="I48" s="32" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A49" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="25">
+        <v>2011</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="G49" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="H49" s="25"/>
+      <c r="I49" s="27" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A49" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B49" s="26">
+    <row r="50" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A50" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" s="25">
+        <v>2008</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="G50" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="H50" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="I50" s="32" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A51" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="25">
+        <v>2007</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F51" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G51" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="H51" s="25"/>
+      <c r="I51" s="27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A52" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" s="25">
+        <v>2010</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F52" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G52" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="H52" s="25"/>
+      <c r="I52" s="27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A53" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="25">
+        <v>1920</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F53" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G53" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="H53" s="25"/>
+      <c r="I53" s="27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A54" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" s="25">
+        <v>1933</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F54" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G54" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="H54" s="25"/>
+      <c r="I54" s="27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A55" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" s="25">
+        <v>1980</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F55" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G55" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="H55" s="25"/>
+      <c r="I55" s="27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A56" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56" s="29">
+        <v>1981</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="F56" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="G56" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="H56" s="29"/>
+      <c r="I56" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A57" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F57" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G57" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="H57" s="25"/>
+      <c r="I57" s="27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A58" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58" s="25">
+        <v>2004</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F58" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G58" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="H58" s="25"/>
+      <c r="I58" s="27" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A59" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="25">
+        <v>2005</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F59" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G59" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="H59" s="25"/>
+      <c r="I59" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A60" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" s="25">
+        <v>2006</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F60" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G60" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="H60" s="25"/>
+      <c r="I60" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A61" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B61" s="25">
+        <v>2006</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F61" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G61" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="H61" s="25"/>
+      <c r="I61" s="27" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A62" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F62" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G62" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="H62" s="25"/>
+      <c r="I62" s="35" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A63" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" s="25">
         <v>2011</v>
       </c>
-      <c r="C49" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="F49" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="G49" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="H49" s="26"/>
-      <c r="I49" s="28" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A50" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="B50" s="26">
+      <c r="C63" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="F63" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G63" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="H63" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I63" s="27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A64" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" s="25">
+        <v>2016</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="F64" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G64" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="H64" s="25"/>
+      <c r="I64" s="27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A65" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B65" s="25">
         <v>2008</v>
       </c>
-      <c r="C50" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="F50" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="G50" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="H50" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="I50" s="33" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="119" x14ac:dyDescent="0.2">
-      <c r="A51" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="B51" s="26">
-        <v>2007</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="F51" s="32" t="s">
+      <c r="C65" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="F65" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="G51" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="H51" s="26"/>
-      <c r="I51" s="28" t="s">
+      <c r="G65" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="H65" s="25"/>
+      <c r="I65" s="27" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B52" s="5">
-        <v>2010</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="H52" s="5"/>
-      <c r="I52" s="17"/>
-    </row>
-    <row r="53" spans="1:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B53" s="5">
-        <v>1920</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="H53" s="5"/>
-      <c r="I53" s="17"/>
-    </row>
-    <row r="54" spans="1:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B54" s="5">
-        <v>1933</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="H54" s="5"/>
-      <c r="I54" s="17"/>
-    </row>
-    <row r="55" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A55" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B55" s="5">
-        <v>1980</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="H55" s="5"/>
-      <c r="I55" s="17"/>
-    </row>
-    <row r="56" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B56" s="5">
-        <v>1981</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="H56" s="5"/>
-      <c r="I56" s="17"/>
-    </row>
-    <row r="57" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A57" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="H57" s="5"/>
-      <c r="I57" s="17"/>
-    </row>
-    <row r="58" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A58" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B58" s="5">
-        <v>2004</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="H58" s="5"/>
-      <c r="I58" s="17"/>
-    </row>
-    <row r="59" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B59" s="5">
-        <v>2005</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="H59" s="5"/>
-      <c r="I59" s="17"/>
-    </row>
-    <row r="60" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B60" s="5">
-        <v>2006</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="H60" s="5"/>
-      <c r="I60" s="17"/>
-    </row>
-    <row r="61" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A61" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B61" s="5">
-        <v>2006</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="H61" s="5"/>
-      <c r="I61" s="17"/>
-    </row>
-    <row r="62" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="H62" s="5"/>
-      <c r="I62" s="17"/>
-    </row>
-    <row r="63" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A63" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B63" s="5">
-        <v>2011</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="I63" s="17"/>
-    </row>
-    <row r="64" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A64" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B64" s="5">
-        <v>2016</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="H64" s="5"/>
-      <c r="I64" s="17"/>
-    </row>
-    <row r="65" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A65" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B65" s="5">
-        <v>2008</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="H65" s="5"/>
-      <c r="I65" s="17"/>
-    </row>
     <row r="66" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66" s="25">
         <v>2015</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E66" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F66" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="G66" s="5" t="s">
+      <c r="G66" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="H66" s="5"/>
-      <c r="I66" s="17"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="27" t="s">
+        <v>250</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
